--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Settings\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8939B6AD-4213-496D-9C55-0B9519E66AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12586954-040C-43E8-8B66-7AAB0CE88EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>SL. No</t>
   </si>
@@ -229,6 +229,12 @@
     </r>
   </si>
   <si>
+    <t>View Manage Payment Settings  page</t>
+  </si>
+  <si>
+    <t>In company’s Payment settings page, the text around the Credit cards has been changed slightly to accommodate this new content</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Once click on the </t>
     </r>
@@ -249,7 +255,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> It should display the Verify company,Manage details,Manage payment settings and Manage integration</t>
+      <t xml:space="preserve"> It should display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Manage details, Manage payment settings and Manage integration"</t>
     </r>
   </si>
   <si>
@@ -264,8 +280,100 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Manage Payment Settings"</t>
-    </r>
+      <t>"Actions-&gt; Manage details"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking Manage details, it shows Details page are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Market,  Address, Company Registration Number, Tax  Registration Number, Logo, Company email, Company phone,  Cancel and Save changes"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allow the user to update specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Send every Day"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown of the month</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It should display the Send every Day dropdown </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Yellow colour highlighted the Outlets menu</t>
+  </si>
+  <si>
+    <t>Application get redirected to Buyer screen</t>
+  </si>
+  <si>
+    <t>It gets displayed the Settings my account</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <t>shouuld display the Linked companies</t>
+  </si>
+  <si>
+    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
+  </si>
+  <si>
+    <t>Displayed as expected</t>
   </si>
   <si>
     <r>
@@ -288,25 +396,45 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> It should display the Payments details like payment method,payment notifications and payment plan.In this page new feature add a Additional payment options </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>FinaxarPay</t>
-    </r>
-  </si>
-  <si>
-    <t>View Manage Payment Settings  page</t>
-  </si>
-  <si>
-    <r>
-      <t>In company’s Payment settings page, all users can see the financing partners we work with on Zeemart, but only those that have been enabled on ZM Admin can be connected to '</t>
+      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage Payment Settings"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration"</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gets displayed the </t>
     </r>
     <r>
       <rPr>
@@ -315,58 +443,17 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>Log in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>' button available</t>
-    </r>
-  </si>
-  <si>
-    <t>In company’s Payment settings page, the text around the Credit cards has been changed slightly to accommodate this new content</t>
-  </si>
-  <si>
-    <t>In company’s Payment settings page, On click of Log in or the entire cell, redirect to the financing partner’s log in page. After successful log in, redirect back to this page</t>
-  </si>
-  <si>
-    <r>
-      <t>In company’s Payment settings page, Connected financing options are marked by the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Active'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> label. On click of the cell, open a modal with some info and option to log out</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">On the click the cell in the FinaxarPay screen option to log out(Log out is Red in colour) </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +500,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -491,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -513,11 +616,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -857,8 +969,14 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -874,8 +992,14 @@
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -891,8 +1015,14 @@
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -908,8 +1038,14 @@
       <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -925,8 +1061,14 @@
       <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -940,10 +1082,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -954,47 +1102,62 @@
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1002,50 +1165,46 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12586954-040C-43E8-8B66-7AAB0CE88EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A795BCEA-0A07-427B-83EA-1CF287D618C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>SL. No</t>
   </si>
@@ -446,6 +446,48 @@
         <scheme val="minor"/>
       </rPr>
       <t>"Quickbooks Online, Xero and InvoiceNow"</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Once click the Xero integration  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In supplier mapping Export as dropdown has Select an option</t>
+  </si>
+  <si>
+    <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xero(new)</t>
     </r>
   </si>
 </sst>
@@ -911,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,6 +1245,29 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A795BCEA-0A07-427B-83EA-1CF287D618C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9C0AFC-3000-41C9-A2DA-816289CA48EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>SL. No</t>
   </si>
@@ -148,6 +148,24 @@
     </r>
   </si>
   <si>
+    <t>View My account page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Linked Companies"</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Once click on the </t>
     </r>
@@ -159,6 +177,304 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>"Linked Companies"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, It should display the Company,Status,outlets and Actions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions"</t>
+    </r>
+  </si>
+  <si>
+    <t>View Manage Payment Settings  page</t>
+  </si>
+  <si>
+    <t>In company’s Payment settings page, the text around the Credit cards has been changed slightly to accommodate this new content</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It should display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Manage details, Manage payment settings and Manage integration"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking Manage details, it shows Details page are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Market,  Address, Company Registration Number, Tax  Registration Number, Logo, Company email, Company phone,  Cancel and Save changes"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allow the user to update specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Send every Day"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown of the month</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It should display the Send every Day dropdown </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Yellow colour highlighted the Outlets menu</t>
+  </si>
+  <si>
+    <t>Application get redirected to Buyer screen</t>
+  </si>
+  <si>
+    <t>It gets displayed the Settings my account</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
+  </si>
+  <si>
+    <t>Displayed as expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Manage Payment Settings",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage Payment Settings"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration"</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Once click the Xero integration  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In supplier mapping Export as dropdown has Select an option</t>
+  </si>
+  <si>
+    <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xero(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>"Settings",</t>
     </r>
     <r>
@@ -168,11 +484,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> It should display the My account Details and Linked companies</t>
-    </r>
-  </si>
-  <si>
-    <t>View My account page</t>
+      <t xml:space="preserve"> It should display the My account </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Details and Linked companies'</t>
+    </r>
   </si>
   <si>
     <r>
@@ -186,31 +509,28 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Linked Companies"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Linked Companies"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, It should display the Company,Status,outlets and Actions</t>
+      <t>"Settings-&gt;Details"</t>
+    </r>
+  </si>
+  <si>
+    <t>should display the Linked companies</t>
+  </si>
+  <si>
+    <t>It gets displayed the Details</t>
+  </si>
+  <si>
+    <r>
+      <t>It shows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'First name, Last name, Job title, Email, Moile phone, Profile photo, Perferences, Cancel and Save'</t>
     </r>
   </si>
   <si>
@@ -225,67 +545,22 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions"</t>
-    </r>
-  </si>
-  <si>
-    <t>View Manage Payment Settings  page</t>
-  </si>
-  <si>
-    <t>In company’s Payment settings page, the text around the Credit cards has been changed slightly to accommodate this new content</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It should display the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>"Settings-&gt;Details"</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>"Manage details, Manage payment settings and Manage integration"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking Manage details, it shows Details page are </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here new options under Perferences Is checkbox of </t>
     </r>
     <r>
       <rPr>
@@ -295,199 +570,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Market,  Address, Company Registration Number, Tax  Registration Number, Logo, Company email, Company phone,  Cancel and Save changes"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allow the user to update specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>"Show item custom name &amp; product code"</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Send every Day"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown of the month</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It should display the Send every Day dropdown </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Yellow colour highlighted the Outlets menu</t>
-  </si>
-  <si>
-    <t>Application get redirected to Buyer screen</t>
-  </si>
-  <si>
-    <t>It gets displayed the Settings my account</t>
-  </si>
-  <si>
-    <t>It gets displayed the as expected</t>
-  </si>
-  <si>
-    <t>shouuld display the Linked companies</t>
-  </si>
-  <si>
-    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
-  </si>
-  <si>
-    <t>Displayed as expected</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Manage Payment Settings",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage Payment Settings"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage integration"</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
-    </r>
-  </si>
-  <si>
-    <t>1.Once click the Xero integration  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In supplier mapping Export as dropdown has Select an option</t>
-  </si>
-  <si>
-    <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage integration</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Xero(new)</t>
+      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    1.Select time zone dropdown</t>
     </r>
   </si>
 </sst>
@@ -953,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,10 +1127,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,16 +1170,16 @@
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1095,22 +1187,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1118,22 +1210,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1141,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1164,19 +1250,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1184,88 +1273,131 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9C0AFC-3000-41C9-A2DA-816289CA48EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F389D10-0AC0-4F9C-884C-F4A0AE3E1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F389D10-0AC0-4F9C-884C-F4A0AE3E1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7444349-E055-4748-8875-B43384F9D84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>SL. No</t>
   </si>
@@ -581,6 +581,9 @@
       </rPr>
       <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    1.Select time zone dropdown</t>
     </r>
+  </si>
+  <si>
+    <t>It gets displayed the Perferences</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,6 +1221,12 @@
       <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7444349-E055-4748-8875-B43384F9D84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE791A07-EF7D-4BB9-B72C-300E03A5CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Here new options under Perferences Is checkbox of </t>
+      <t xml:space="preserve">Here new options under Perferences Is checkbox of          1. </t>
     </r>
     <r>
       <rPr>
@@ -570,6 +570,25 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>"Do not send weekly/Monthly emails"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> By default it is Not selected(This setting should be visible only Owners users only)                                                                                                                 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>"Show item custom name &amp; product code"</t>
     </r>
     <r>
@@ -579,11 +598,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    1.Select time zone dropdown</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Perferences</t>
+      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    *.Select time zone dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>2.It gets displayed the Perferences</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE791A07-EF7D-4BB9-B72C-300E03A5CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7808C808-F65D-48A1-8176-C5AD4375D2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>SL. No</t>
   </si>
@@ -422,9 +422,6 @@
     </r>
   </si>
   <si>
-    <t>1.Once click the Xero integration  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In supplier mapping Export as dropdown has Select an option</t>
-  </si>
-  <si>
     <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
   </si>
   <si>
@@ -603,6 +600,131 @@
   </si>
   <si>
     <t>2.It gets displayed the Perferences</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Once click the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xero integration'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Supplier Mapping : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export as dropdown as Select an supplier, Chart of Account as Select CoA dropdown and Tax rate as N/A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.In</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export settings &amp; data mapping : "Export settings and Data mapping" Cancel and Save                                                                                                                                             </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Once click the 'Quickbooks online'  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Supplier Mapping : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export as dropdown as Select an supplier, Category as Select Category dropdown and Tax Code as select tax code and Disconnect button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.In</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Data mapping : "Outlet and Tracking class" Cancel and Save and Disconnect button                                                                                                                                            </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1067,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1212,13 +1334,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -1235,13 +1357,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1264,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1405,7 +1527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1416,15 +1538,38 @@
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7808C808-F65D-48A1-8176-C5AD4375D2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9F024C-85F9-4BF3-8B72-10B540515BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>SL. No</t>
   </si>
@@ -903,10 +903,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,6 +1457,9 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9F024C-85F9-4BF3-8B72-10B540515BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF158D-E208-4952-86A5-56C76E3C0C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF158D-E208-4952-86A5-56C76E3C0C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559E1EF-0A22-4C51-9DD5-3FECB9307B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>SL. No</t>
   </si>
@@ -302,6 +302,51 @@
     <t xml:space="preserve">It should display the Send every Day dropdown </t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Yellow colour highlighted the Outlets menu</t>
+  </si>
+  <si>
+    <t>Application get redirected to Buyer screen</t>
+  </si>
+  <si>
+    <t>It gets displayed the Settings my account</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
+  </si>
+  <si>
+    <t>Displayed as expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Manage Payment Settings",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Click on the </t>
     </r>
@@ -313,11 +358,379 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>"Actions -&gt;Manage Payment Settings"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration"</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xero(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Settings",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It should display the My account </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Details and Linked companies'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Settings-&gt;Details"</t>
+    </r>
+  </si>
+  <si>
+    <t>should display the Linked companies</t>
+  </si>
+  <si>
+    <t>It gets displayed the Details</t>
+  </si>
+  <si>
+    <r>
+      <t>It shows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'First name, Last name, Job title, Email, Moile phone, Profile photo, Perferences, Cancel and Save'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Settings-&gt;Details"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here new options under Perferences Is checkbox of          1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Do not send weekly/Monthly emails"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> By default it is Not selected(This setting should be visible only Owners users only)                                                                                                                 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Show item custom name &amp; product code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    *.Select time zone dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>2.It gets displayed the Perferences</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Once click the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xero integration'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Supplier Mapping : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export as dropdown as Select an supplier, Chart of Account as Select CoA dropdown and Tax rate as N/A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.In</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export settings &amp; data mapping : "Export settings and Data mapping" Cancel and Save                                                                                                                                             </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Once click the 'Quickbooks online'  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Supplier Mapping : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export as dropdown as Select an supplier, Category as Select Category dropdown and Tax Code as select tax code and Disconnect button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.In</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Data mapping : "Outlet and Tracking class" Cancel and Save and Disconnect button                                                                                                                                            </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Address</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -328,403 +741,7 @@
     </r>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Yellow colour highlighted the Outlets menu</t>
-  </si>
-  <si>
-    <t>Application get redirected to Buyer screen</t>
-  </si>
-  <si>
-    <t>It gets displayed the Settings my account</t>
-  </si>
-  <si>
-    <t>It gets displayed the as expected</t>
-  </si>
-  <si>
-    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
-  </si>
-  <si>
-    <t>Displayed as expected</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Manage Payment Settings",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage Payment Settings"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage integration"</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage integration</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Xero(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It should display the My account </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Details and Linked companies'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings-&gt;Details"</t>
-    </r>
-  </si>
-  <si>
-    <t>should display the Linked companies</t>
-  </si>
-  <si>
-    <t>It gets displayed the Details</t>
-  </si>
-  <si>
-    <r>
-      <t>It shows</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'First name, Last name, Job title, Email, Moile phone, Profile photo, Perferences, Cancel and Save'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings-&gt;Details"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here new options under Perferences Is checkbox of          1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Do not send weekly/Monthly emails"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> By default it is Not selected(This setting should be visible only Owners users only)                                                                                                                 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Show item custom name &amp; product code"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    *.Select time zone dropdown</t>
-    </r>
-  </si>
-  <si>
-    <t>2.It gets displayed the Perferences</t>
-  </si>
-  <si>
-    <r>
-      <t>1.Once click the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Xero integration'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Supplier Mapping : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Export as dropdown as Select an supplier, Chart of Account as Select CoA dropdown and Tax rate as N/A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.In</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Export settings &amp; data mapping : "Export settings and Data mapping" Cancel and Save                                                                                                                                             </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Once click the 'Quickbooks online'  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Supplier Mapping : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Export as dropdown as Select an supplier, Category as Select Category dropdown and Tax Code as select tax code and Disconnect button</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.In</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Data mapping : "Outlet and Tracking class" Cancel and Save and Disconnect button                                                                                                                                            </t>
-    </r>
+    <t>Austraila : Postcode, State dropdown, Address line 1 and Address line 2 and Phone num : +61 ABN</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,10 +1288,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,10 +1311,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,13 +1331,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,16 +1351,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,16 +1374,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,10 +1403,10 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,10 +1426,10 @@
         <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1432,10 +1449,10 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>28</v>
@@ -1458,10 +1475,10 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1472,43 +1489,37 @@
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1518,19 +1529,19 @@
         <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1541,19 +1552,19 @@
         <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1564,16 +1575,39 @@
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
-        <v>31</v>
+      <c r="E17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559E1EF-0A22-4C51-9DD5-3FECB9307B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982D203-BECA-4C3A-A047-F2DD3409C69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>SL. No</t>
   </si>
@@ -212,6 +212,84 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking Manage details, it shows Details page are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Market,  Address, Company Registration Number, Tax  Registration Number, Logo, Company email, Company phone,  Cancel and Save changes"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allow the user to update specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Send every Day"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown of the month</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It should display the Send every Day dropdown </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Yellow colour highlighted the Outlets menu</t>
+  </si>
+  <si>
+    <t>Application get redirected to Buyer screen</t>
+  </si>
+  <si>
+    <t>It gets displayed the Settings my account</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
+  </si>
+  <si>
+    <t>Displayed as expected</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Once click on the </t>
     </r>
     <r>
@@ -222,6 +300,464 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>"Manage Payment Settings",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage Payment Settings"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration"</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xero(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Settings",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It should display the My account </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Details and Linked companies'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Settings-&gt;Details"</t>
+    </r>
+  </si>
+  <si>
+    <t>should display the Linked companies</t>
+  </si>
+  <si>
+    <t>It gets displayed the Details</t>
+  </si>
+  <si>
+    <r>
+      <t>It shows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'First name, Last name, Job title, Email, Moile phone, Profile photo, Perferences, Cancel and Save'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Settings-&gt;Details"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here new options under Perferences Is checkbox of          1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Do not send weekly/Monthly emails"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> By default it is Not selected(This setting should be visible only Owners users only)                                                                                                                 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Show item custom name &amp; product code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    *.Select time zone dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>2.It gets displayed the Perferences</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>Austraila : Postcode, State dropdown, Address line 1 and Address line 2 and Phone num : +61 ABN</t>
+  </si>
+  <si>
+    <r>
+      <t>Here new tab, there is a new Accounting tab to manage accounting settings.This is only visible to users with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Manage accounting integration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permission                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense category screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IMPORTANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - if you are using Xero/QBO/accounting integration,you must provide the mapping for these expense categories in the 'Expense category mapping' of the integration settings page, otherwise these categories will not be exported                                                                               Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Here users are able to create new, Rename, or Delete expense categories. The categories created here will be available to select by users in the outlets in this company.                                                 1.Enter the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Name and Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Green color                                                               2.If we click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button ,pop up message will appear </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Delete"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button in red color.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>"Actions",</t>
     </r>
     <r>
@@ -241,7 +777,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Manage details, Manage payment settings and Manage integration"</t>
+      <t>"Verify company, Manage details, Manage payment settings, Manage accounting settings and Manage integration"</t>
     </r>
   </si>
   <si>
@@ -256,94 +792,133 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions-&gt; Manage details"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking Manage details, it shows Details page are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Market,  Address, Company Registration Number, Tax  Registration Number, Logo, Company email, Company phone,  Cancel and Save changes"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allow the user to update specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Send every Day"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown of the month</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It should display the Send every Day dropdown </t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Yellow colour highlighted the Outlets menu</t>
-  </si>
-  <si>
-    <t>Application get redirected to Buyer screen</t>
-  </si>
-  <si>
-    <t>It gets displayed the Settings my account</t>
-  </si>
-  <si>
-    <t>It gets displayed the as expected</t>
-  </si>
-  <si>
-    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
-  </si>
-  <si>
-    <t>Displayed as expected</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Manage Payment Settings",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
+      <t>"Actions-&gt; Manage accounting settings tab (new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking Manage accounting settings it goes to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Accounting'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab .Button only visible to users with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Manage accounting integration'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.Once click the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xero integration'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Supplier Mapping : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export as dropdown as Select an supplier, Chart of Account as Select CoA dropdown and Tax rate as N/A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.                                                                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.New tab </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Expense category mapping'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Different expense categories can be mapped to the same COA (Xero)/Category (QBO).
+Expense category mapping is optional. User can choose to only map some categories. If no expense category is associated with the SKU being exported, we will use the mapping assigned to the supplier.                                                      4.In</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Export settings &amp; data mapping : "Export settings and Data mapping" Cancel and Save                                                                                                                                             </t>
     </r>
   </si>
   <si>
@@ -358,7 +933,28 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions -&gt;Manage Payment Settings"</t>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;QOB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
     </r>
   </si>
   <si>
@@ -373,30 +969,29 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions -&gt;Manage integration"</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed  In the integration settings page, if there are any incomplete settings (unmapped), upon clicking "Save" button we will validate and highlight with red outline those that contains errors.</t>
+      <t>Xero &gt;Expense category mapping(new)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -420,7 +1015,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>-&gt;</t>
+      <t>-&gt;QOB&gt; Expense category mapping</t>
     </r>
     <r>
       <rPr>
@@ -431,172 +1026,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Xero(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It should display the My account </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Details and Linked companies'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings-&gt;Details"</t>
-    </r>
-  </si>
-  <si>
-    <t>should display the Linked companies</t>
-  </si>
-  <si>
-    <t>It gets displayed the Details</t>
-  </si>
-  <si>
-    <r>
-      <t>It shows</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 'First name, Last name, Job title, Email, Moile phone, Profile photo, Perferences, Cancel and Save'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings-&gt;Details"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>(new)</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Here new options under Perferences Is checkbox of          1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Do not send weekly/Monthly emails"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> By default it is Not selected(This setting should be visible only Owners users only)                                                                                                                 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Show item custom name &amp; product code"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    *.Select time zone dropdown</t>
-    </r>
-  </si>
-  <si>
-    <t>2.It gets displayed the Perferences</t>
-  </si>
-  <si>
-    <r>
-      <t>1.Once click the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Xero integration'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
+      <t xml:space="preserve">1.Once click the 'Quickbooks online'  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
     </r>
     <r>
       <rPr>
@@ -615,59 +1050,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Export as dropdown as Select an supplier, Chart of Account as Select CoA dropdown and Tax rate as N/A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.                                                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.In</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Export settings &amp; data mapping : "Export settings and Data mapping" Cancel and Save                                                                                                                                             </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Once click the 'Quickbooks online'  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Supplier Mapping : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> Export as dropdown as Select an supplier, Category as Select Category dropdown and Tax Code as select tax code and Disconnect button</t>
     </r>
     <r>
@@ -687,7 +1069,26 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>3.In</t>
+      <t xml:space="preserve">3.here new tab </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'Expense category mapping'                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.In</t>
     </r>
     <r>
       <rPr>
@@ -702,46 +1103,51 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <t>Austraila : Postcode, State dropdown, Address line 1 and Address line 2 and Phone num : +61 ABN</t>
+      <t xml:space="preserve">It should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense cateory, Category dropdown and Tax code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense cateory, Charts of Account dropdown and Tax rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -889,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -924,6 +1330,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1206,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1677,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,10 +1700,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,10 +1723,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1331,13 +1743,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,16 +1763,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1374,16 +1786,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,10 +1815,10 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,16 +1835,16 @@
         <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1443,16 +1855,16 @@
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1466,16 +1878,16 @@
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,13 +1901,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1506,66 +1918,54 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+    <row r="15" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>23</v>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1575,39 +1975,131 @@
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17" t="s">
-        <v>30</v>
+      <c r="E19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3982D203-BECA-4C3A-A047-F2DD3409C69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D256DAC-6AC0-4A37-878B-34EE6F8F0441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>SL. No</t>
   </si>
@@ -190,6 +190,12 @@
     </r>
   </si>
   <si>
+    <t>View Manage Payment Settings  page</t>
+  </si>
+  <si>
+    <t>In company’s Payment settings page, the text around the Credit cards has been changed slightly to accommodate this new content</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Click on the </t>
     </r>
@@ -201,14 +207,95 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions"</t>
-    </r>
-  </si>
-  <si>
-    <t>View Manage Payment Settings  page</t>
-  </si>
-  <si>
-    <t>In company’s Payment settings page, the text around the Credit cards has been changed slightly to accommodate this new content</t>
+      <t>"Actions-&gt; Manage details"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After clicking Manage details, it shows Details page are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Market,  Address, Company Registration Number, Tax  Registration Number, Logo, Company email, Company phone,  Cancel and Save changes"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allow the user to update specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Send every Day"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown of the month</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It should display the Send every Day dropdown </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Yellow colour highlighted the Outlets menu</t>
+  </si>
+  <si>
+    <t>Application get redirected to Buyer screen</t>
+  </si>
+  <si>
+    <t>It gets displayed the Settings my account</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
+  </si>
+  <si>
+    <t>Displayed as expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Manage Payment Settings",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
+    </r>
   </si>
   <si>
     <r>
@@ -222,143 +309,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Actions-&gt; Manage details"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After clicking Manage details, it shows Details page are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Market,  Address, Company Registration Number, Tax  Registration Number, Logo, Company email, Company phone,  Cancel and Save changes"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Allow the user to update specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Send every Day"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown of the month</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">It should display the Send every Day dropdown </t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Yellow colour highlighted the Outlets menu</t>
-  </si>
-  <si>
-    <t>Application get redirected to Buyer screen</t>
-  </si>
-  <si>
-    <t>It gets displayed the Settings my account</t>
-  </si>
-  <si>
-    <t>It gets displayed the as expected</t>
-  </si>
-  <si>
-    <t>As expected it displayed the "Manage details, Manage payment settings and Manage integration"</t>
-  </si>
-  <si>
-    <t>Displayed as expected</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Manage Payment Settings",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> It should display the Payments details like Payment method (Credit/ Debit cards and Financing partners), Payment notifications and Payment plan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>"Actions -&gt;Manage Payment Settings"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage integration"</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero and InvoiceNow(PEPPOL) and Connect button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Quickbooks Online, Xero and InvoiceNow"</t>
     </r>
   </si>
   <si>
@@ -1147,6 +1098,163 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero, Microsoft Business Central and InvoiceNow(PEPPOL) and Connect button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quickbooks Online, Xero, Microsoft Business Central and InvoiceNow"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;Microsoft Business central</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here new Microsot Business Central if we click on Configure Unlike Xero or QBO, there is no 'Connect' button, only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Configure'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                               1.Clicking 'Configure' leads the user to the mapping page, which consists of two tabs, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Outlets' and 'Suppliers'</t>
+    </r>
+  </si>
+  <si>
+    <t>There is 2 tabs Outlets and Suppliers                                           1.Outlets : Zeemart and Business central dropdown select and Sync now                                                                                                               2.Suppliers : Zeemart and Business central dropdown select and Sync now                                                                                   If not selecting the option its throughing an error</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below it shows Cancel and Save, After Clicking the Save and toastr will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Integration settings saved'</t>
     </r>
   </si>
 </sst>
@@ -1295,7 +1403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1334,9 +1442,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,10 +1782,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1700,10 +1805,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1723,10 +1828,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1743,13 +1848,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,16 +1868,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,16 +1891,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,10 +1920,10 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1832,16 +1937,16 @@
         <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,16 +1960,16 @@
         <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,16 +1983,16 @@
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,10 +2006,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,10 +2023,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,10 +2040,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,16 +2057,16 @@
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -1972,22 +2077,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1998,13 +2103,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2012,22 +2117,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2035,19 +2137,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2055,17 +2157,17 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2073,33 +2175,84 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>64</v>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D256DAC-6AC0-4A37-878B-34EE6F8F0441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97759191-D249-4D54-9B6D-2FB6356BFF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -534,87 +534,6 @@
   </si>
   <si>
     <t>Austraila : Postcode, State dropdown, Address line 1 and Address line 2 and Phone num : +61 ABN</t>
-  </si>
-  <si>
-    <r>
-      <t>Here new tab, there is a new Accounting tab to manage accounting settings.This is only visible to users with</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Manage accounting integration"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> permission                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Expense category screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> IMPORTANT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - if you are using Xero/QBO/accounting integration,you must provide the mapping for these expense categories in the 'Expense category mapping' of the integration settings page, otherwise these categories will not be exported                                                                               Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Add new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1255,6 +1174,93 @@
         <family val="2"/>
       </rPr>
       <t>'Integration settings saved'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed Microsost Business central A expected</t>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
+  </si>
+  <si>
+    <r>
+      <t>Here new tab, there is a new Accounting tab to manage accounting settings.This is only visible to users with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Manage accounting integration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permission                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense category screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IMPORTANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - if you are using Xero/QBO/Accounting Integration, you must provide the mapping for these expense categories in the 'Expense category mapping' of the integration settings page, otherwise these categories will not be exported                                                                               Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
     </r>
   </si>
 </sst>
@@ -1725,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E25"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,10 +1943,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>33</v>
@@ -2023,10 +2029,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2040,10 +2046,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,7 +2098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2103,13 +2109,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2120,16 +2126,16 @@
         <v>22</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2143,13 +2149,13 @@
         <v>38</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2160,14 +2166,14 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2178,16 +2184,16 @@
         <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2198,13 +2204,13 @@
         <v>22</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2215,13 +2221,19 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2232,13 +2244,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2249,10 +2267,16 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97759191-D249-4D54-9B6D-2FB6356BFF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA62CCD-098F-49F6-87EF-E61EA4F3D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -423,6 +423,52 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Here new options under Perferences Is checkbox of          1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Do not send weekly/Monthly emails"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> By default it is Not selected(This setting should be visible only Owners users only)                                                                                                                 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Show item custom name &amp; product code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    *.Select time zone dropdown</t>
+    </r>
+  </si>
+  <si>
+    <t>2.It gets displayed the Perferences</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Click on the </t>
     </r>
     <r>
@@ -433,103 +479,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>"Settings-&gt;Details"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here new options under Perferences Is checkbox of          1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Do not send weekly/Monthly emails"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> By default it is Not selected(This setting should be visible only Owners users only)                                                                                                                 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Show item custom name &amp; product code"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> this is the user level settings, By default  this is enabled for everyone                                                                                                    *.Select time zone dropdown</t>
-    </r>
-  </si>
-  <si>
-    <t>2.It gets displayed the Perferences</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
     </r>
   </si>
   <si>
@@ -1261,6 +1211,78 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)(if oly australia user)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pop up ,enter name and Save : Expense category is updated                               2.Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pop up ,enter Delete and : Expense category is Deleted successfully</t>
     </r>
   </si>
 </sst>
@@ -1731,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,13 +1919,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1943,10 +1965,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>33</v>
@@ -1989,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>26</v>
@@ -2012,10 +2034,16 @@
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,10 +2057,16 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,10 +2080,16 @@
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,10 +2149,16 @@
         <v>19</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,13 +2172,16 @@
         <v>22</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>64</v>
+      <c r="G18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2149,10 +2198,13 @@
         <v>38</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,12 +2218,17 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -2184,13 +2241,16 @@
         <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,10 +2264,16 @@
         <v>22</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>59</v>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,13 +2287,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2244,13 +2310,13 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="F24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -2267,13 +2333,13 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA62CCD-098F-49F6-87EF-E61EA4F3D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75583B55-0C3C-41FE-B6D1-277AA2999CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
   <si>
     <t>SL. No</t>
   </si>
@@ -466,21 +466,6 @@
   </si>
   <si>
     <t>2.It gets displayed the Perferences</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Reoprts"</t>
-    </r>
   </si>
   <si>
     <t>Austraila : Postcode, State dropdown, Address line 1 and Address line 2 and Phone num : +61 ABN</t>
@@ -1284,6 +1269,69 @@
       </rPr>
       <t xml:space="preserve"> pop up ,enter Delete and : Expense category is Deleted successfully</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Reports"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details &gt; Company Registration Number"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Text below </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'UEN (Singapore), ABN (Australia)'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details &gt; Company phone (O)"</t>
+    </r>
+  </si>
+  <si>
+    <t>should allow longer numbers up to 20 characters .For AU, pre-fill the field with +61 prefix.</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,10 +2013,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>33</v>
@@ -2000,7 +2048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2011,19 +2059,19 @@
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2034,10 +2082,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -2046,7 +2094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2057,19 +2105,19 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2080,19 +2128,19 @@
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2103,43 +2151,43 @@
         <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2149,10 +2197,10 @@
         <v>19</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -2161,8 +2209,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="18" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2172,42 +2220,42 @@
         <v>22</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>22</v>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2218,19 +2266,19 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2241,10 +2289,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>37</v>
@@ -2253,7 +2301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2264,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>57</v>
@@ -2276,7 +2324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2287,19 +2335,19 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2310,19 +2358,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2333,15 +2381,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75583B55-0C3C-41FE-B6D1-277AA2999CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD62F58-279F-4CCE-9404-AA17FD99BB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
   <si>
     <t>SL. No</t>
   </si>
@@ -836,6 +836,409 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">It should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense cateory, Category dropdown and Tax code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero, Microsoft Business Central and InvoiceNow(PEPPOL) and Connect button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Quickbooks Online, Xero, Microsoft Business Central and InvoiceNow"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;Microsoft Business central</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here new Microsot Business Central if we click on Configure Unlike Xero or QBO, there is no 'Connect' button, only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Configure'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                               1.Clicking 'Configure' leads the user to the mapping page, which consists of two tabs, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Outlets' and 'Suppliers'</t>
+    </r>
+  </si>
+  <si>
+    <t>There is 2 tabs Outlets and Suppliers                                           1.Outlets : Zeemart and Business central dropdown select and Sync now                                                                                                               2.Suppliers : Zeemart and Business central dropdown select and Sync now                                                                                   If not selecting the option its throughing an error</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below it shows Cancel and Save, After Clicking the Save and toastr will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Integration settings saved'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed Microsost Business central A expected</t>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
+  </si>
+  <si>
+    <r>
+      <t>Here new tab, there is a new Accounting tab to manage accounting settings.This is only visible to users with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Manage accounting integration"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> permission                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expense category screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IMPORTANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - if you are using Xero/QBO/Accounting Integration, you must provide the mapping for these expense categories in the 'Expense category mapping' of the integration settings page, otherwise these categories will not be exported                                                                               Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)(if oly australia user)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pop up ,enter name and Save : Expense category is updated                               2.Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pop up ,enter Delete and : Expense category is Deleted successfully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details-&gt;Reports"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details &gt; Company Registration Number"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Text below </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'UEN (Singapore), ABN (Australia)'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions-&gt; Manage details &gt; Company phone (O)"</t>
+    </r>
+  </si>
+  <si>
+    <t>should allow longer numbers up to 20 characters .For AU, pre-fill the field with +61 prefix.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">1.Once click the 'Quickbooks online'  and enter the credentials ,will get a Authentiction code ,enter and login                                                                                                               2.In </t>
     </r>
     <r>
@@ -903,8 +1306,47 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Data mapping : "Outlet and Tracking class" Cancel and Save and Disconnect button                                                                                                                                            </t>
-    </r>
+      <t xml:space="preserve"> Data mapping : "Outlet, Tracking class and Location dropdown" Cancel and Save and Disconnect button                                                                                                                                            </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;QOB &gt; Data mapping </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>Data mapping text below : Optional - If you have set up a tracking class and/or the location feature on QBO, you may add the following additional mapping options</t>
   </si>
   <si>
     <r>
@@ -918,7 +1360,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Expense cateory, Category dropdown and Tax code</t>
+      <t>Expense cateory, Category under dropdown (Select category) and Tax rate</t>
     </r>
     <r>
       <rPr>
@@ -929,409 +1371,6 @@
       </rPr>
       <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It should have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Expense cateory, Charts of Account dropdown and Tax rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage integration"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click the Integration tab it shows Integrate outlet data with other online services                                                 1.Accounting : Quickbooks online, Xero, Microsoft Business Central and InvoiceNow(PEPPOL) and Connect button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gets displayed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Quickbooks Online, Xero, Microsoft Business Central and InvoiceNow"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions -&gt;Manage integration</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-&gt;Microsoft Business central</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here new Microsot Business Central if we click on Configure Unlike Xero or QBO, there is no 'Connect' button, only </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Configure'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                               1.Clicking 'Configure' leads the user to the mapping page, which consists of two tabs, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Outlets' and 'Suppliers'</t>
-    </r>
-  </si>
-  <si>
-    <t>There is 2 tabs Outlets and Suppliers                                           1.Outlets : Zeemart and Business central dropdown select and Sync now                                                                                                               2.Suppliers : Zeemart and Business central dropdown select and Sync now                                                                                   If not selecting the option its throughing an error</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Below it shows Cancel and Save, After Clicking the Save and toastr will be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Integration settings saved'</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed Microsost Business central A expected</t>
-  </si>
-  <si>
-    <t>It gets displayed as expected</t>
-  </si>
-  <si>
-    <r>
-      <t>Here new tab, there is a new Accounting tab to manage accounting settings.This is only visible to users with</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Manage accounting integration"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> permission                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Expense category screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> IMPORTANT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - if you are using Xero/QBO/Accounting Integration, you must provide the mapping for these expense categories in the 'Expense category mapping' of the integration settings page, otherwise these categories will not be exported                                                                               Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Add new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(new)(if oly australia user)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rename</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pop up ,enter name and Save : Expense category is updated                               2.Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pop up ,enter Delete and : Expense category is Deleted successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details-&gt;Reports"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details &gt; Company Registration Number"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Text below </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'UEN (Singapore), ABN (Australia)'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions-&gt; Manage details &gt; Company phone (O)"</t>
-    </r>
-  </si>
-  <si>
-    <t>should allow longer numbers up to 20 characters .For AU, pre-fill the field with +61 prefix.</t>
   </si>
 </sst>
 </file>
@@ -1799,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2052,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>48</v>
@@ -2059,10 +2098,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -2082,10 +2121,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -2105,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>26</v>
@@ -2128,7 +2167,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>46</v>
@@ -2154,10 +2193,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -2180,7 +2219,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
@@ -2266,13 +2305,13 @@
         <v>22</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
@@ -2315,7 +2354,7 @@
         <v>53</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -2338,7 +2377,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>37</v>
@@ -2347,7 +2386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2358,19 +2397,14 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2381,19 +2415,19 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2404,19 +2438,19 @@
         <v>22</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2427,15 +2461,38 @@
         <v>22</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
+++ b/Buyer hub/Settings/Manual testcases/Settings Final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD62F58-279F-4CCE-9404-AA17FD99BB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB69F40-943A-44D1-93FD-2DD3DDDEECAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
   <si>
     <t>SL. No</t>
   </si>
@@ -1346,9 +1346,6 @@
     </r>
   </si>
   <si>
-    <t>Data mapping text below : Optional - If you have set up a tracking class and/or the location feature on QBO, you may add the following additional mapping options</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">It should have </t>
     </r>
@@ -1370,6 +1367,144 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">. On top right Disconnect option and below of the page Cancel and Save </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data mapping text below : Optional - If you have set up a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"tracking class and/or the location feature"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on QBO, you may add the following additional mapping options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here new Links go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Tracking category and Location feature" goes to new page, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It gets displayed as expected </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions -&gt;Manage integration</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xero &gt;Expense settings &amp; data mapping(new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Under this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Export settings : "Line item details - Individual SKU dropdown, Status of exported purchase ordres - Awaiting Approval dropdown and Status of exported invoices - Awaiting Approval dropdown"                             2. Data mapping : "Optional - If you have set up tracking categories on Xero, you may add the following additional mapping options." Outlet, Tracking category 1 and Tracking category 2 dropdowns , Cancel and Save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It gets displayed once click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Tracking category </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" Link go to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Xero central page"</t>
     </r>
   </si>
 </sst>
@@ -1838,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2489,7 @@
         <v>53</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -2363,7 +2498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2374,19 +2509,19 @@
         <v>22</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2397,14 +2532,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2415,19 +2555,19 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="G25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2438,19 +2578,19 @@
         <v>22</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2463,17 +2603,17 @@
       <c r="D27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>62</v>
+      <c r="E27" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2486,13 +2626,36 @@
       <c r="D28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>63</v>
+      <c r="E28" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
         <v>28</v>
       </c>
     </row>
